--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3974.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3974.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.241616568893694</v>
+        <v>1.398581624031067</v>
       </c>
       <c r="B1">
-        <v>2.582013214602572</v>
+        <v>1.803339242935181</v>
       </c>
       <c r="C1">
-        <v>5.492082043721045</v>
+        <v>1.506727695465088</v>
       </c>
       <c r="D1">
-        <v>3.110401556118384</v>
+        <v>2.246083736419678</v>
       </c>
       <c r="E1">
-        <v>1.362409241704456</v>
+        <v>3.384918689727783</v>
       </c>
     </row>
   </sheetData>
